--- a/APF/RA006/模組功能進度表_APF.xlsx
+++ b/APF/RA006/模組功能進度表_APF.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>APF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>10/14 ~ 10/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳英杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳鈺杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,6 +560,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,12 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,7 +851,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -875,26 +887,26 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1000,7 +1012,7 @@
       <c r="I5" s="23">
         <v>41571</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="25">
         <v>41572</v>
       </c>
       <c r="K5" s="9"/>
@@ -1030,13 +1042,13 @@
         <v>41556</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I6" s="23">
-        <v>41575</v>
-      </c>
-      <c r="J6" s="29">
-        <v>41575</v>
+        <v>41568</v>
+      </c>
+      <c r="J6" s="25">
+        <v>41568</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="12"/>
@@ -1065,13 +1077,13 @@
         <v>41561</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I7" s="23">
-        <v>41576</v>
-      </c>
-      <c r="J7" s="29">
-        <v>41576</v>
+        <v>41569</v>
+      </c>
+      <c r="J7" s="25">
+        <v>41570</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
@@ -1103,10 +1115,10 @@
         <v>56</v>
       </c>
       <c r="I8" s="23">
-        <v>41568</v>
-      </c>
-      <c r="J8" s="29">
-        <v>41569</v>
+        <v>41571</v>
+      </c>
+      <c r="J8" s="25">
+        <v>41571</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
@@ -1138,10 +1150,10 @@
         <v>56</v>
       </c>
       <c r="I9" s="23">
-        <v>41570</v>
-      </c>
-      <c r="J9" s="29">
-        <v>41570</v>
+        <v>41572</v>
+      </c>
+      <c r="J9" s="25">
+        <v>41572</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
@@ -1173,10 +1185,10 @@
         <v>56</v>
       </c>
       <c r="I10" s="23">
-        <v>41571</v>
-      </c>
-      <c r="J10" s="29">
-        <v>41572</v>
+        <v>41575</v>
+      </c>
+      <c r="J10" s="25">
+        <v>41576</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
@@ -1205,13 +1217,13 @@
         <v>41556</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I11" s="23">
-        <v>41577</v>
-      </c>
-      <c r="J11" s="29">
-        <v>41577</v>
+        <v>41582</v>
+      </c>
+      <c r="J11" s="25">
+        <v>41582</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
@@ -1240,13 +1252,13 @@
         <v>41558</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="23">
-        <v>41578</v>
-      </c>
-      <c r="J12" s="29">
-        <v>41578</v>
+        <v>41582</v>
+      </c>
+      <c r="J12" s="25">
+        <v>41582</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
@@ -1276,10 +1288,10 @@
         <v>56</v>
       </c>
       <c r="I13" s="23">
-        <v>41575</v>
-      </c>
-      <c r="J13" s="29">
         <v>41577</v>
+      </c>
+      <c r="J13" s="25">
+        <v>41578</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
@@ -1309,10 +1321,10 @@
         <v>56</v>
       </c>
       <c r="I14" s="23">
-        <v>41578</v>
-      </c>
-      <c r="J14" s="29">
-        <v>41578</v>
+        <v>41579</v>
+      </c>
+      <c r="J14" s="25">
+        <v>41579</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
@@ -1344,7 +1356,7 @@
       <c r="I15" s="23">
         <v>41572</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="25">
         <v>41576</v>
       </c>
       <c r="K15" s="9"/>
@@ -1377,7 +1389,7 @@
       <c r="I16" s="23">
         <v>41577</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="25">
         <v>41578</v>
       </c>
       <c r="K16" s="9"/>
@@ -1410,7 +1422,7 @@
       <c r="I17" s="23">
         <v>41575</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="25">
         <v>41576</v>
       </c>
       <c r="K17" s="9"/>
@@ -1443,7 +1455,7 @@
       <c r="I18" s="23">
         <v>41577</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="25">
         <v>41578</v>
       </c>
       <c r="K18" s="9"/>
@@ -1476,7 +1488,7 @@
       <c r="I19" s="23">
         <v>41579</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="25">
         <v>41579</v>
       </c>
       <c r="K19" s="9"/>
@@ -1509,7 +1521,7 @@
       <c r="I20" s="23">
         <v>41579</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="25">
         <v>41579</v>
       </c>
       <c r="K20" s="9"/>
@@ -1537,20 +1549,20 @@
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I21" s="23">
-        <v>41579</v>
-      </c>
-      <c r="J21" s="29">
-        <v>41579</v>
+        <v>41582</v>
+      </c>
+      <c r="J21" s="25">
+        <v>41582</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="12"/>
       <c r="M21" s="10"/>
     </row>
     <row r="24" spans="1:13" ht="31.5">
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1561,7 +1573,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="31.5">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="26" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1572,7 +1584,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="31.5">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
